--- a/resources/documents/DTR_4.xlsx
+++ b/resources/documents/DTR_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Code\Github\Palimbang\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>CIVIL SERVICE FORM No. 48</t>
   </si>
@@ -195,51 +195,11 @@
   <si>
     <t>Name</t>
   </si>
-  <si>
-    <t>456, 456 123</t>
-  </si>
-  <si>
-    <t>For the Month of: June 2022</t>
-  </si>
-  <si>
-    <t>Office Hours    Arrival A.M. 08:00:00          P.M. 13:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Departure A.M.12:00:00          P.M.17:00:00</t>
-  </si>
-  <si>
-    <t>06:38 pm</t>
-  </si>
-  <si>
-    <t>496 mins</t>
-  </si>
-  <si>
-    <t>11:13 pm</t>
-  </si>
-  <si>
-    <t>12:23 am</t>
-  </si>
-  <si>
-    <t>1610 mins</t>
-  </si>
-  <si>
-    <t>12:24 am</t>
-  </si>
-  <si>
-    <t>12:42 am</t>
-  </si>
-  <si>
-    <t>480 mins</t>
-  </si>
-  <si>
-    <t>2586 Minute/s</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1158,10 +1118,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.28515625"/>
-    <col min="2" max="5" customWidth="true" width="7.5703125"/>
-    <col min="6" max="6" customWidth="true" width="8.140625"/>
-    <col min="7" max="7" customWidth="true" width="3.7109375"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,7 +1155,7 @@
     </row>
     <row r="4" spans="1:7" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -1223,7 +1183,7 @@
     </row>
     <row r="7" spans="1:7" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -1233,7 +1193,7 @@
     </row>
     <row r="8" spans="1:7" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -1242,9 +1202,7 @@
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="39" t="s">
         <v>4</v>
       </c>
@@ -1429,21 +1387,11 @@
       <c r="A26" s="11">
         <v>15</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
@@ -1459,37 +1407,21 @@
       <c r="A28" s="11">
         <v>17</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>18</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
@@ -1629,9 +1561,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="19" t="s">
-        <v>31</v>
-      </c>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" ht="10.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
